--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/152.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/152.xlsx
@@ -479,13 +479,13 @@
         <v>0.04653016285206586</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.027432529261525</v>
+        <v>-1.929013048654396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2978541134925713</v>
+        <v>0.2517715556782511</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09792984652024402</v>
+        <v>-0.09522725568897074</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.07117472978860483</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.082089556239131</v>
+        <v>-1.976011685597314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2938561049244676</v>
+        <v>0.2419386582274857</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08349294313967411</v>
+        <v>-0.08690541659465401</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.08776514696964073</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.263052173586389</v>
+        <v>-2.151940589794652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2760995952170745</v>
+        <v>0.2200125718677671</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04735661215285292</v>
+        <v>-0.05801901768054378</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07833584082539657</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.42527373226588</v>
+        <v>-2.305305142878585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3356321464229091</v>
+        <v>0.2749064887231286</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08476160255144247</v>
+        <v>-0.09243651978690462</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.03697714623170847</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.464175614848827</v>
+        <v>-2.336265311985009</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4006108037884441</v>
+        <v>0.3375052291772569</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1200007426391223</v>
+        <v>-0.1255129576019173</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02968599166317268</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.485826247862318</v>
+        <v>-2.33935275049144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4943672527487196</v>
+        <v>0.436840001903422</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1240632859911993</v>
+        <v>-0.1300980753022662</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1046243741465251</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.317560455757032</v>
+        <v>-2.177208318748892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6157650514981564</v>
+        <v>0.5457983275372196</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1501542269458795</v>
+        <v>-0.1500188613014477</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1672289293121305</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.865123612520801</v>
+        <v>-1.747542023130958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6612321678360481</v>
+        <v>0.5926694689313114</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1504438464641989</v>
+        <v>-0.1466882368407754</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1962393304510858</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.265791434789184</v>
+        <v>-1.183572545988043</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5912276674162</v>
+        <v>0.5386208003440884</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1519029621896446</v>
+        <v>-0.1399388428486381</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1721429014196301</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5390943518192794</v>
+        <v>-0.4954247653179132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4613459056029525</v>
+        <v>0.4259115871442314</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1301767762583312</v>
+        <v>-0.1170478827675622</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08539898039433702</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2926629984305217</v>
+        <v>0.3034166970672479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2615603805936201</v>
+        <v>0.2515543410395116</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01838364218707116</v>
+        <v>-0.007818825844900941</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05879309611134342</v>
       </c>
       <c r="E13" t="n">
-        <v>1.103726719292583</v>
+        <v>1.093300416633087</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08368182543423019</v>
+        <v>-0.06608114361984591</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05469019551931327</v>
+        <v>0.06814805900643416</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2445298364940295</v>
       </c>
       <c r="E14" t="n">
-        <v>1.895965171463887</v>
+        <v>1.874330278641609</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.489780332748929</v>
+        <v>-0.4436237960359076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2233022718312855</v>
+        <v>0.2286350486142523</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4514207639583182</v>
       </c>
       <c r="E15" t="n">
-        <v>2.678687104027808</v>
+        <v>2.638557486530247</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9774146045661246</v>
+        <v>-0.8862419079934643</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3886026119120412</v>
+        <v>0.3855757731417799</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6626535083712773</v>
       </c>
       <c r="E16" t="n">
-        <v>3.289966873899658</v>
+        <v>3.25959460093504</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.465683206089204</v>
+        <v>-1.342124279086222</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5790400373599688</v>
+        <v>0.5627914379707818</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8648237498081555</v>
       </c>
       <c r="E17" t="n">
-        <v>4.017429717172075</v>
+        <v>3.986185437614257</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.012938174183028</v>
+        <v>-1.846144089956158</v>
       </c>
       <c r="G17" t="n">
-        <v>0.779064813275739</v>
+        <v>0.7560542277414442</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.056661693290188</v>
       </c>
       <c r="E18" t="n">
-        <v>4.538625224693645</v>
+        <v>4.505663690274487</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.476049228090359</v>
+        <v>-2.286307519094046</v>
       </c>
       <c r="G18" t="n">
-        <v>1.01442631846471</v>
+        <v>0.9756440613349818</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.240258346952539</v>
       </c>
       <c r="E19" t="n">
-        <v>4.999921434554116</v>
+        <v>4.974548246318749</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.919167091118928</v>
+        <v>-2.70626841281004</v>
       </c>
       <c r="G19" t="n">
-        <v>1.27580635972878</v>
+        <v>1.213723897546439</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.416087564135087</v>
       </c>
       <c r="E20" t="n">
-        <v>5.318416333653704</v>
+        <v>5.308177339269642</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.351726433881813</v>
+        <v>-3.117193649760207</v>
       </c>
       <c r="G20" t="n">
-        <v>1.474885150152649</v>
+        <v>1.406750584448906</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.578276341098734</v>
       </c>
       <c r="E21" t="n">
-        <v>5.541557154384896</v>
+        <v>5.55413514118321</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.717018495476791</v>
+        <v>-3.480653553097992</v>
       </c>
       <c r="G21" t="n">
-        <v>1.669817974211011</v>
+        <v>1.590235567438048</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.724678795453371</v>
       </c>
       <c r="E22" t="n">
-        <v>5.71312523860667</v>
+        <v>5.743379460137191</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.002034794875874</v>
+        <v>-3.769630871615827</v>
       </c>
       <c r="G22" t="n">
-        <v>1.845508414511473</v>
+        <v>1.758033875864308</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.852882665255793</v>
       </c>
       <c r="E23" t="n">
-        <v>5.923304011873952</v>
+        <v>5.956186845337044</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.188091725109222</v>
+        <v>-3.969808327386364</v>
       </c>
       <c r="G23" t="n">
-        <v>1.917365535437092</v>
+        <v>1.833213751154993</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.962834030744655</v>
       </c>
       <c r="E24" t="n">
-        <v>5.953710913259238</v>
+        <v>5.990812117967416</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.405248912150789</v>
+        <v>-4.182504744238165</v>
       </c>
       <c r="G24" t="n">
-        <v>2.065970254698211</v>
+        <v>1.967652298324406</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.050108461035892</v>
       </c>
       <c r="E25" t="n">
-        <v>5.906783107176779</v>
+        <v>5.958303901055194</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.42480531272339</v>
+        <v>-4.224863959821048</v>
       </c>
       <c r="G25" t="n">
-        <v>2.103109235865301</v>
+        <v>2.007259341473695</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.111519870866996</v>
       </c>
       <c r="E26" t="n">
-        <v>5.866264706956257</v>
+        <v>5.911135270047176</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.448524206862269</v>
+        <v>-4.270289364652226</v>
       </c>
       <c r="G26" t="n">
-        <v>2.13067503273664</v>
+        <v>2.039762836328554</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.146701169448029</v>
       </c>
       <c r="E27" t="n">
-        <v>5.833770656216125</v>
+        <v>5.874004158975692</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.436027282048703</v>
+        <v>-4.278310566094374</v>
       </c>
       <c r="G27" t="n">
-        <v>2.162234116118718</v>
+        <v>2.073366570549203</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.157882269643744</v>
       </c>
       <c r="E28" t="n">
-        <v>5.615002460603907</v>
+        <v>5.660260232398666</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.338313749017478</v>
+        <v>-4.201807727732236</v>
       </c>
       <c r="G28" t="n">
-        <v>2.124696908113939</v>
+        <v>2.040652157132089</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.150219647416889</v>
       </c>
       <c r="E29" t="n">
-        <v>5.401208165414999</v>
+        <v>5.462835736071284</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.140568152789351</v>
+        <v>-4.037648551514423</v>
       </c>
       <c r="G29" t="n">
-        <v>2.082097654615058</v>
+        <v>1.996417497766176</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.124599509329839</v>
       </c>
       <c r="E30" t="n">
-        <v>5.148814199314433</v>
+        <v>5.227597004373775</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.015768111709223</v>
+        <v>-3.925605935412437</v>
       </c>
       <c r="G30" t="n">
-        <v>1.966555206996859</v>
+        <v>1.899967902089355</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.085069622068255</v>
       </c>
       <c r="E31" t="n">
-        <v>4.881341130031807</v>
+        <v>4.969097418101684</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.866701417836001</v>
+        <v>-3.789857804334102</v>
       </c>
       <c r="G31" t="n">
-        <v>1.854566894554558</v>
+        <v>1.79352958106876</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.032041084208481</v>
       </c>
       <c r="E32" t="n">
-        <v>4.622174159652285</v>
+        <v>4.717776933041846</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.70605309126825</v>
+        <v>-3.644375939009643</v>
       </c>
       <c r="G32" t="n">
-        <v>1.738352340771564</v>
+        <v>1.686563963642529</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.969890076047782</v>
       </c>
       <c r="E33" t="n">
-        <v>4.350171063338556</v>
+        <v>4.442928010156805</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.564171007674206</v>
+        <v>-3.499610252385376</v>
       </c>
       <c r="G33" t="n">
-        <v>1.616894729295518</v>
+        <v>1.56539282364656</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.899944578032778</v>
       </c>
       <c r="E34" t="n">
-        <v>4.012029257566893</v>
+        <v>4.106015513318878</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.435181714702736</v>
+        <v>-3.366475780057961</v>
       </c>
       <c r="G34" t="n">
-        <v>1.482796170256306</v>
+        <v>1.442208513194446</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.826565306706107</v>
       </c>
       <c r="E35" t="n">
-        <v>3.673501817110512</v>
+        <v>3.763326366305778</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.292282027746771</v>
+        <v>-3.235197076274559</v>
       </c>
       <c r="G35" t="n">
-        <v>1.348744831790733</v>
+        <v>1.309491942943736</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.750493551103546</v>
       </c>
       <c r="E36" t="n">
-        <v>3.379956695102661</v>
+        <v>3.460543326075014</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.195761601209492</v>
+        <v>-3.135514445322586</v>
       </c>
       <c r="G36" t="n">
-        <v>1.236029322514391</v>
+        <v>1.196138955923267</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.674109956723413</v>
       </c>
       <c r="E37" t="n">
-        <v>3.076339424737608</v>
+        <v>3.154689374538592</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.081438231400741</v>
+        <v>-3.012370272358067</v>
       </c>
       <c r="G37" t="n">
-        <v>1.144158548461433</v>
+        <v>1.104274477946795</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.596454641831908</v>
       </c>
       <c r="E38" t="n">
-        <v>2.758499317592481</v>
+        <v>2.827878932421173</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.953247753133331</v>
+        <v>-2.891136958606805</v>
       </c>
       <c r="G38" t="n">
-        <v>1.037986236672338</v>
+        <v>0.9966430504322543</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.516154462899745</v>
       </c>
       <c r="E39" t="n">
-        <v>2.423629897574002</v>
+        <v>2.493149600104489</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.799929633613476</v>
+        <v>-2.744147969973701</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9379337112268599</v>
+        <v>0.9003508566675634</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.433050968472796</v>
       </c>
       <c r="E40" t="n">
-        <v>2.140629129659745</v>
+        <v>2.21953628222967</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.667363382188851</v>
+        <v>-2.616906625236436</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8780438576804901</v>
+        <v>0.8458834989940744</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.345860845305048</v>
       </c>
       <c r="E41" t="n">
-        <v>1.923943361345007</v>
+        <v>1.996518234989939</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.566372741347077</v>
+        <v>-2.513824112982454</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7483273678749791</v>
+        <v>0.7258472267845626</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.257473667999374</v>
       </c>
       <c r="E42" t="n">
-        <v>1.673129710442228</v>
+        <v>1.746170493747065</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.446502528154863</v>
+        <v>-2.403166633707212</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6771643893818536</v>
+        <v>0.6517849050700014</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.166741292879182</v>
       </c>
       <c r="E43" t="n">
-        <v>1.412239189124881</v>
+        <v>1.490507289931558</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.341536702022244</v>
+        <v>-2.298272425444613</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6046430323870458</v>
+        <v>0.5842720769191723</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.076695956631981</v>
       </c>
       <c r="E44" t="n">
-        <v>1.170203842861596</v>
+        <v>1.254445346233609</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.268473882449709</v>
+        <v>-2.22585337969269</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5715870568206101</v>
+        <v>0.5420490139902814</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9864914050123921</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9630204279821503</v>
+        <v>1.045511622091277</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.228671660929379</v>
+        <v>-2.181728901665267</v>
       </c>
       <c r="G45" t="n">
-        <v>0.477455991309465</v>
+        <v>0.4586338706569514</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8984243960196087</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7763260200046757</v>
+        <v>0.8555117739590707</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.162639984771694</v>
+        <v>-2.115680698306809</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3946861958158683</v>
+        <v>0.3797503283738461</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8125439682458642</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5985799107317955</v>
+        <v>0.6779403808086549</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.095897638980741</v>
+        <v>-2.044983629473588</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3590110524315883</v>
+        <v>0.3485186409689979</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7310794226919337</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4412000348694249</v>
+        <v>0.5191407396988711</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.031559607397575</v>
+        <v>-1.979494989912752</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3039597336640967</v>
+        <v>0.2883281497704596</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6548998216654326</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3387125018432946</v>
+        <v>0.4112291367807386</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.001683937465728</v>
+        <v>-1.945603997202466</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2635153123422755</v>
+        <v>0.2487006443725935</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5857155490859357</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2358944248016911</v>
+        <v>0.3127600745712888</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.927221027884795</v>
+        <v>-1.869957425242316</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2274262019290934</v>
+        <v>0.2126666246286568</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5238503833672239</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1567968159180889</v>
+        <v>0.225079339419234</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.888785054961754</v>
+        <v>-1.828403320439978</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1805141360378477</v>
+        <v>0.1651816157772577</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4698241784209731</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06766326111707355</v>
+        <v>0.1311182679731895</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.855438672867438</v>
+        <v>-1.792167826248514</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1403467420813754</v>
+        <v>0.1246994179965253</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4239776257699003</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03526522554334149</v>
+        <v>0.08892825944584583</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.821602770826398</v>
+        <v>-1.756262876072525</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08659241506983562</v>
+        <v>0.0705358460134473</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3867613239889114</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0252229835494431</v>
+        <v>0.0595680807762241</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.817371020418781</v>
+        <v>-1.749410383827942</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05619810583751933</v>
+        <v>0.04122918399394979</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3583971384279845</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.008012430196820925</v>
+        <v>0.01431030898146543</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.80139551334714</v>
+        <v>-1.732325980285344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02710708443764002</v>
+        <v>0.007782851685431477</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.337729401570548</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.06296930781703444</v>
+        <v>-0.05106657522175864</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.84701845757804</v>
+        <v>-1.765843930463882</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01654833589163456</v>
+        <v>-0.03364060952983872</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3247284043706588</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06581198635010348</v>
+        <v>-0.06451499459415172</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.877506420948074</v>
+        <v>-1.787885707229016</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02864624685795164</v>
+        <v>-0.0477800232964828</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.317136927636556</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1585406008241696</v>
+        <v>-0.1621655668605251</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.86561785452489</v>
+        <v>-1.779630763947355</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05340241959776886</v>
+        <v>-0.078676444628494</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3147626079406041</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2130441609374485</v>
+        <v>-0.219480325124447</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.908423304528662</v>
+        <v>-1.811720291773312</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0994849774120891</v>
+        <v>-0.1253461115750594</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3156623124956368</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2865540019404332</v>
+        <v>-0.3046867022178172</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.933931858408461</v>
+        <v>-1.826666390339622</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1096342527062359</v>
+        <v>-0.1357613961007061</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.319068193126095</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3339996603137999</v>
+        <v>-0.3543832079346438</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.997735510499945</v>
+        <v>-1.882664481608576</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1286074791943944</v>
+        <v>-0.1591717824918112</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3239617201624987</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.419091134011315</v>
+        <v>-0.4368744020437702</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.050848424719555</v>
+        <v>-1.931240285711037</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1459736321597049</v>
+        <v>-0.1762010953651633</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3301377223709621</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4766640314111303</v>
+        <v>-0.5003372789954926</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.098742678542492</v>
+        <v>-1.976367413918728</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1817022921941092</v>
+        <v>-0.2162724741552362</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3364697447544706</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5474948918696613</v>
+        <v>-0.5661706287438939</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.158023386688919</v>
+        <v>-2.032265554973479</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2262076828488862</v>
+        <v>-0.2574771467126457</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3421548102262674</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6307557813291037</v>
+        <v>-0.652052260040302</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.180010072784807</v>
+        <v>-2.0605357254016</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2425334091750169</v>
+        <v>-0.2779189330409776</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3460315292601563</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7144747103528447</v>
+        <v>-0.7311419988282977</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.204020947470688</v>
+        <v>-2.090047796916427</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2892251123892805</v>
+        <v>-0.3249663645766552</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3473153505894812</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7564994468724517</v>
+        <v>-0.7829366720338181</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.20586254984261</v>
+        <v>-2.095931480391849</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3267150998204203</v>
+        <v>-0.3593445162049835</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3459245247497555</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.8145839004866897</v>
+        <v>-0.8356718216643158</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.246237714323094</v>
+        <v>-2.134678322091347</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3564561911173968</v>
+        <v>-0.3874360354628369</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.3421892316837947</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8285108216719582</v>
+        <v>-0.8551935938162475</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.296418230919721</v>
+        <v>-2.188993786919631</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3677041317582115</v>
+        <v>-0.3968313555978807</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.3370557279123774</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8402215239344354</v>
+        <v>-0.8694148565771992</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.300511467644663</v>
+        <v>-2.193391596344545</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4277687014270458</v>
+        <v>-0.4498458936224092</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.3313621571996174</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7858580515229522</v>
+        <v>-0.8338900320190034</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.281382413263496</v>
+        <v>-2.187305651412036</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4393267238347567</v>
+        <v>-0.457215451148339</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.3273100053112173</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7684494000413666</v>
+        <v>-0.8227577817836043</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.308851407958875</v>
+        <v>-2.221152571586925</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4436599984756975</v>
+        <v>-0.4593482470577014</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.3252579244048598</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6353629352971508</v>
+        <v>-0.6973966028867322</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.318820458063633</v>
+        <v>-2.219100050652749</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4554368095412692</v>
+        <v>-0.4722662219862162</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.3258933890752413</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.4880095612374657</v>
+        <v>-0.5664775624725475</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.359248352184681</v>
+        <v>-2.256331111938435</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4772479925051329</v>
+        <v>-0.4903422575752333</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3286832913290212</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.3569362669493935</v>
+        <v>-0.4435545391945703</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.34403703139643</v>
+        <v>-2.24108909777732</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4692016067570438</v>
+        <v>-0.4830986215790075</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3338494922641136</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1986560521496389</v>
+        <v>-0.2918537243218526</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.336688723128638</v>
+        <v>-2.233696716974131</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4786268332553923</v>
+        <v>-0.4855950159053904</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3405932342763408</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02092905938653482</v>
+        <v>-0.09211069782879537</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.297778970450085</v>
+        <v>-2.194752335874909</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4504723532326869</v>
+        <v>-0.4579804244412912</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3491109079353057</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2114577779434979</v>
+        <v>0.09434760728048411</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.321210606099328</v>
+        <v>-2.215944142314541</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4298023341317662</v>
+        <v>-0.4318863354483684</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3586918521198112</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4584261001329397</v>
+        <v>0.3228180567564002</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.243875111622022</v>
+        <v>-2.147839482974103</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4371388372561487</v>
+        <v>-0.4300321409234761</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.367311973869586</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6774555829192943</v>
+        <v>0.5310356021985404</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.136192528486039</v>
+        <v>-2.051086101606871</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.393571561997667</v>
+        <v>-0.3865168082959973</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3742365615145291</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8988744267317833</v>
+        <v>0.7524686121831212</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.113052086374236</v>
+        <v>-2.029393757086666</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3440481983841834</v>
+        <v>-0.3353470206816332</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3781862010328405</v>
       </c>
       <c r="E82" t="n">
-        <v>1.146143386573394</v>
+        <v>0.9998682156117994</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.002027073634171</v>
+        <v>-1.932376727516616</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2886254111040649</v>
+        <v>-0.2842071394305739</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3777862672075348</v>
       </c>
       <c r="E83" t="n">
-        <v>1.399242513240302</v>
+        <v>1.248355466253296</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.952233765741385</v>
+        <v>-1.88409683900896</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2778103257216079</v>
+        <v>-0.2607542545231937</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3722743061886087</v>
       </c>
       <c r="E84" t="n">
-        <v>1.678695442055147</v>
+        <v>1.512982708964611</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.828494613549013</v>
+        <v>-1.777163488974716</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2231682519256545</v>
+        <v>-0.2075020396113488</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3613265902013577</v>
       </c>
       <c r="E85" t="n">
-        <v>1.91387908308341</v>
+        <v>1.750985418239124</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.702517206166152</v>
+        <v>-1.663420932221725</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1863613887931592</v>
+        <v>-0.1691620818547066</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3439184759201485</v>
       </c>
       <c r="E86" t="n">
-        <v>2.100948107611755</v>
+        <v>1.934764742803949</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.5364227734387</v>
+        <v>-1.514916163174808</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1543710241718441</v>
+        <v>-0.1315587650468332</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3185206911784028</v>
       </c>
       <c r="E87" t="n">
-        <v>2.329171436085627</v>
+        <v>2.153857186355156</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.390018532909159</v>
+        <v>-1.380791632820094</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1400490241871291</v>
+        <v>-0.1131222790790383</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2831020193232167</v>
       </c>
       <c r="E88" t="n">
-        <v>2.453370988870979</v>
+        <v>2.28507843844063</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.178686003625965</v>
+        <v>-1.191751149342321</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.115126005420454</v>
+        <v>-0.08349294313967411</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2373384435163548</v>
       </c>
       <c r="E89" t="n">
-        <v>2.568139019081497</v>
+        <v>2.395305423486196</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9683608465804031</v>
+        <v>-0.9939583325405555</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1097586002168187</v>
+        <v>-0.0706442250524966</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1826379829097047</v>
       </c>
       <c r="E90" t="n">
-        <v>2.634986037144016</v>
+        <v>2.466298407914221</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7892642289014469</v>
+        <v>-0.8303658032064111</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08222113568966315</v>
+        <v>-0.0447956830424967</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1194106860219019</v>
       </c>
       <c r="E91" t="n">
-        <v>2.68390497741492</v>
+        <v>2.516644983528145</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6282798492512978</v>
+        <v>-0.6648632016685684</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1351790090258248</v>
+        <v>-0.08661107501897077</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04904940828899292</v>
       </c>
       <c r="E92" t="n">
-        <v>2.711022178836688</v>
+        <v>2.55268844738681</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4160438329924769</v>
+        <v>-0.460978930867369</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09898286531239418</v>
+        <v>-0.05915231144788027</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02747964773766255</v>
       </c>
       <c r="E93" t="n">
-        <v>2.670080367472536</v>
+        <v>2.521389077159745</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2800533029694614</v>
+        <v>-0.3206692923755043</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1139313249073868</v>
+        <v>-0.07633115613775598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.107105504576574</v>
       </c>
       <c r="E94" t="n">
-        <v>2.619469356646234</v>
+        <v>2.474329053471097</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1122880489447489</v>
+        <v>-0.1503053327815244</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1323520706839688</v>
+        <v>-0.09458190784923745</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1901969896737754</v>
       </c>
       <c r="E95" t="n">
-        <v>2.503010829899439</v>
+        <v>2.366448930935391</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05242518200376158</v>
+        <v>0.01354218765027069</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.111414468332427</v>
+        <v>-0.07938317921395802</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2751962594587358</v>
       </c>
       <c r="E96" t="n">
-        <v>2.362907387912464</v>
+        <v>2.23835368082482</v>
       </c>
       <c r="F96" t="n">
-        <v>0.116484612202457</v>
+        <v>0.08612178335256671</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1527875609358156</v>
+        <v>-0.1225412095009016</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3596476322309135</v>
       </c>
       <c r="E97" t="n">
-        <v>2.162685859606531</v>
+        <v>2.037902345727177</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1555863952138087</v>
+        <v>0.1317510236599523</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1838461062373208</v>
+        <v>-0.1500314534544181</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4384620432863947</v>
       </c>
       <c r="E98" t="n">
-        <v>1.986427198403281</v>
+        <v>1.867206268098603</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1926419533674694</v>
+        <v>0.1697195129039675</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1948374817613635</v>
+        <v>-0.1604262757314878</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5081375739806492</v>
       </c>
       <c r="E99" t="n">
-        <v>1.833901597511001</v>
+        <v>1.713123962295357</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2082184465918611</v>
+        <v>0.1849371297687026</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2274905084327462</v>
+        <v>-0.1925897824561461</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5610428160306353</v>
       </c>
       <c r="E100" t="n">
-        <v>1.623077476403987</v>
+        <v>1.512943358486578</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2147821063276849</v>
+        <v>0.191780964908118</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2537545914907695</v>
+        <v>-0.2171885532838332</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5954200548752889</v>
       </c>
       <c r="E101" t="n">
-        <v>1.494129107929671</v>
+        <v>1.384605709431326</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2149505263736641</v>
+        <v>0.187232049647559</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2927084167047189</v>
+        <v>-0.2516044813710728</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.6023578663348863</v>
       </c>
       <c r="E102" t="n">
-        <v>1.301308617532094</v>
+        <v>1.213487794678244</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2144531363313331</v>
+        <v>0.1893916038819835</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2838970576636777</v>
+        <v>-0.2425192430029252</v>
       </c>
     </row>
   </sheetData>
